--- a/test_files_v1.3/d_fail_missing_values_and_columns-v1.3.1.xlsx
+++ b/test_files_v1.3/d_fail_missing_values_and_columns-v1.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CancerDataServices-SubmissionValidationR/test_files_v1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E98264-8867-1D45-AF13-8C3D3B5002B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70E2AD-E616-AC4A-8E5C-B1CE1A658DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4360" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
   <sheets>
     <sheet name="README and INSTRUCTIONS" sheetId="8" r:id="rId1"/>
@@ -29905,18 +29905,12 @@
     <t>s1-1</t>
   </si>
   <si>
-    <t>file1</t>
-  </si>
-  <si>
     <t>BAM</t>
   </si>
   <si>
     <t>3af5572206a86c5a65c8ea8fda6cb8f3</t>
   </si>
   <si>
-    <t>s3://file1</t>
-  </si>
-  <si>
     <t>paired</t>
   </si>
   <si>
@@ -29932,15 +29926,9 @@
     <t>s1-2</t>
   </si>
   <si>
-    <t>file2</t>
-  </si>
-  <si>
     <t>3af2275206a8655a65c8ea8fda6cb8f4</t>
   </si>
   <si>
-    <t>s3://file2</t>
-  </si>
-  <si>
     <t>ilLUMINA</t>
   </si>
   <si>
@@ -29950,15 +29938,9 @@
     <t>s2-1</t>
   </si>
   <si>
-    <t>file3</t>
-  </si>
-  <si>
     <t>3af2272206a86c5a65c8ea8fda6cb8f5</t>
   </si>
   <si>
-    <t>s3://file3</t>
-  </si>
-  <si>
     <t>ILLUMina</t>
   </si>
   <si>
@@ -30038,6 +30020,24 @@
   </si>
   <si>
     <t>aytaa65-6874</t>
+  </si>
+  <si>
+    <t>file1.bam</t>
+  </si>
+  <si>
+    <t>file2.bam</t>
+  </si>
+  <si>
+    <t>file3.bam</t>
+  </si>
+  <si>
+    <t>s3://file3.bam</t>
+  </si>
+  <si>
+    <t>s3://file2.bam</t>
+  </si>
+  <si>
+    <t>s3://file1.bam</t>
   </si>
 </sst>
 </file>
@@ -30991,8 +30991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8C985-DF33-3E49-A37A-52651F205350}">
   <dimension ref="A1:CP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="BM6" sqref="BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31414,37 +31414,49 @@
         <v>4730</v>
       </c>
       <c r="AS2" t="s">
+        <v>9994</v>
+      </c>
+      <c r="AT2" t="s">
         <v>9955</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>9956</v>
       </c>
       <c r="AU2">
         <v>54664</v>
       </c>
       <c r="AV2" t="s">
-        <v>9957</v>
+        <v>9956</v>
       </c>
       <c r="AW2" t="s">
-        <v>9958</v>
+        <v>9999</v>
       </c>
       <c r="BB2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD2" t="s">
         <v>383</v>
       </c>
       <c r="BF2" t="s">
-        <v>9959</v>
+        <v>9957</v>
       </c>
       <c r="BG2" t="s">
         <v>466</v>
       </c>
       <c r="BJ2" t="s">
-        <v>9960</v>
+        <v>9958</v>
+      </c>
+      <c r="BL2">
+        <v>654</v>
+      </c>
+      <c r="BM2">
+        <v>312</v>
+      </c>
+      <c r="BN2">
+        <v>2</v>
+      </c>
+      <c r="BO2">
+        <v>150</v>
       </c>
       <c r="BR2" t="s">
-        <v>9961</v>
+        <v>9959</v>
       </c>
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.2">
@@ -31476,43 +31488,43 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
-        <v>9962</v>
+        <v>9960</v>
       </c>
       <c r="AC3" t="s">
         <v>9893</v>
       </c>
       <c r="AI3" t="s">
-        <v>9963</v>
+        <v>9961</v>
       </c>
       <c r="AL3" t="s">
         <v>4727</v>
       </c>
       <c r="AS3" t="s">
-        <v>9964</v>
+        <v>9995</v>
       </c>
       <c r="AU3">
         <v>13489</v>
       </c>
       <c r="AV3" t="s">
-        <v>9965</v>
+        <v>9962</v>
       </c>
       <c r="AW3" t="s">
-        <v>9966</v>
+        <v>9998</v>
       </c>
       <c r="BB3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD3" t="s">
         <v>383</v>
       </c>
       <c r="BF3" t="s">
-        <v>9959</v>
+        <v>9957</v>
       </c>
       <c r="BG3" t="s">
-        <v>9967</v>
+        <v>9963</v>
       </c>
       <c r="BJ3" t="s">
-        <v>9960</v>
+        <v>9958</v>
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.2">
@@ -31544,31 +31556,31 @@
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>9968</v>
+        <v>9964</v>
       </c>
       <c r="AC4" t="s">
         <v>9897</v>
       </c>
       <c r="AI4" t="s">
-        <v>9969</v>
+        <v>9965</v>
       </c>
       <c r="AL4" t="s">
         <v>4730</v>
       </c>
       <c r="AS4" t="s">
-        <v>9970</v>
+        <v>9996</v>
       </c>
       <c r="AT4" t="s">
-        <v>9956</v>
+        <v>9955</v>
       </c>
       <c r="AU4">
         <v>465498</v>
       </c>
       <c r="AV4" t="s">
-        <v>9971</v>
+        <v>9966</v>
       </c>
       <c r="AW4" t="s">
-        <v>9972</v>
+        <v>9997</v>
       </c>
       <c r="BB4">
         <v>3</v>
@@ -31577,24 +31589,36 @@
         <v>383</v>
       </c>
       <c r="BF4" t="s">
-        <v>9959</v>
+        <v>9957</v>
       </c>
       <c r="BG4" t="s">
-        <v>9973</v>
+        <v>9967</v>
       </c>
       <c r="BJ4" t="s">
-        <v>9960</v>
+        <v>9958</v>
+      </c>
+      <c r="BL4">
+        <v>65498</v>
+      </c>
+      <c r="BM4">
+        <v>135</v>
+      </c>
+      <c r="BN4">
+        <v>450</v>
+      </c>
+      <c r="BO4">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9974</v>
+        <v>9968</v>
       </c>
       <c r="C5" t="s">
-        <v>9974</v>
+        <v>9968</v>
       </c>
       <c r="D5" t="s">
-        <v>9975</v>
+        <v>9969</v>
       </c>
       <c r="F5">
         <v>42</v>
@@ -31603,16 +31627,16 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>9976</v>
+        <v>9970</v>
       </c>
       <c r="J5" t="s">
-        <v>9977</v>
+        <v>9971</v>
       </c>
       <c r="K5" t="s">
         <v>9808</v>
       </c>
       <c r="AA5" t="s">
-        <v>9978</v>
+        <v>9972</v>
       </c>
       <c r="AB5" t="s">
         <v>9891</v>
@@ -31621,30 +31645,30 @@
         <v>9894</v>
       </c>
       <c r="AI5" t="s">
-        <v>9979</v>
+        <v>9973</v>
       </c>
       <c r="AS5" t="s">
-        <v>9980</v>
+        <v>9974</v>
       </c>
       <c r="AU5">
         <v>6548943487</v>
       </c>
       <c r="AV5" t="s">
-        <v>9981</v>
+        <v>9975</v>
       </c>
       <c r="AW5" t="s">
-        <v>9982</v>
+        <v>9976</v>
       </c>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9983</v>
+        <v>9977</v>
       </c>
       <c r="C6" t="s">
-        <v>9983</v>
+        <v>9977</v>
       </c>
       <c r="D6" t="s">
-        <v>9984</v>
+        <v>9978</v>
       </c>
       <c r="F6">
         <v>76</v>
@@ -31653,16 +31677,16 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>9985</v>
+        <v>9979</v>
       </c>
       <c r="J6" t="s">
-        <v>9986</v>
+        <v>9980</v>
       </c>
       <c r="K6" t="s">
-        <v>9987</v>
+        <v>9981</v>
       </c>
       <c r="AA6" t="s">
-        <v>9988</v>
+        <v>9982</v>
       </c>
       <c r="AB6" t="s">
         <v>311</v>
@@ -31677,45 +31701,45 @@
         <v>4730</v>
       </c>
       <c r="AS6" t="s">
-        <v>9989</v>
+        <v>9983</v>
       </c>
       <c r="AT6" t="s">
-        <v>9990</v>
+        <v>9984</v>
       </c>
       <c r="AU6">
         <v>6541</v>
       </c>
       <c r="AV6" t="s">
-        <v>9991</v>
+        <v>9985</v>
       </c>
       <c r="AW6" t="s">
-        <v>9992</v>
+        <v>9986</v>
       </c>
       <c r="BB6" t="s">
-        <v>9993</v>
+        <v>9987</v>
       </c>
       <c r="BD6" t="s">
         <v>383</v>
       </c>
       <c r="BF6" t="s">
-        <v>9959</v>
+        <v>9957</v>
       </c>
       <c r="BG6" t="s">
         <v>466</v>
       </c>
       <c r="BJ6" t="s">
-        <v>9994</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9974</v>
+        <v>9968</v>
       </c>
       <c r="C7" t="s">
-        <v>9974</v>
+        <v>9968</v>
       </c>
       <c r="D7" t="s">
-        <v>9995</v>
+        <v>9989</v>
       </c>
       <c r="F7">
         <v>42</v>
@@ -31724,16 +31748,16 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>9976</v>
+        <v>9970</v>
       </c>
       <c r="J7" t="s">
-        <v>9977</v>
+        <v>9971</v>
       </c>
       <c r="K7" t="s">
         <v>9808</v>
       </c>
       <c r="AA7" t="s">
-        <v>9996</v>
+        <v>9990</v>
       </c>
       <c r="AB7" t="s">
         <v>9892</v>
@@ -31742,13 +31766,13 @@
         <v>9898</v>
       </c>
       <c r="AI7" t="s">
-        <v>9997</v>
+        <v>9991</v>
       </c>
       <c r="AS7" t="s">
-        <v>9998</v>
+        <v>9992</v>
       </c>
       <c r="BR7" t="s">
-        <v>9999</v>
+        <v>9993</v>
       </c>
       <c r="BS7" s="7" t="s">
         <v>4992</v>
@@ -82696,18 +82720,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82902,6 +82926,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -82914,14 +82946,6 @@
     <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
